--- a/Prequal Task List - 21'04.xlsx
+++ b/Prequal Task List - 21'04.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git-hub.com Clone\Springboot-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50F41E1-7187-410F-9A83-A4648885DBDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21516409-316B-4671-AEE7-7195BC548445}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21924" windowHeight="12012" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2484" yWindow="660" windowWidth="20544" windowHeight="11136" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto CW " sheetId="1" r:id="rId1"/>
-    <sheet name="Tasks" sheetId="2" r:id="rId2"/>
+    <sheet name="Issues" sheetId="2" r:id="rId2"/>
+    <sheet name="Tasks" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Task</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,12 +434,416 @@
     <t xml:space="preserve">Short-term: </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">Dao </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacTagData Loader stopped from 3/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MQSI\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>林聖凱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Follow-ups</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System Issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Need to create FacTagData monitor.
+1. Dao data loader </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>失敗預防機制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. AP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>端預防機制</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FacTagData monitor.
+1. Dao data loader </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>失敗預防機制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. AP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>端預防機制</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. MQSI\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>林聖凱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. IEAD\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>翁毓謙</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>聖凱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> restarted loader on 4/15</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F18P3 Lorry PreQual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>從</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4/12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>開始未啟動</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Need to create data quality monitor. 
+1. Bluebook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">資料完整度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>廠務換料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> vs. ees-data quality
+3. AP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>端預防機制</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Bluebook 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>改版</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>影響</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ees-dao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>未能拿到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>F18P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>換料紀錄</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. MQSI\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳建良</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. MQSI\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳建良</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. IEAD\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>翁毓謙</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +875,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -509,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -539,6 +951,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -886,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342071F4-8D9A-43BE-9DE4-7BBB6518F8B9}">
-  <dimension ref="C3:H5"/>
+  <dimension ref="C3:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,6 +1370,145 @@
         <v>22</v>
       </c>
     </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BF9A19-A3A1-4D84-9DF2-2DA0AFE2E091}">
+  <dimension ref="C3:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="5.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="7"/>
+    <col min="9" max="9" width="36.125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="32.75" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="44.4" x14ac:dyDescent="0.3">
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" ht="44.4" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="59.4" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" ht="59.4" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prequal Task List - 21'04.xlsx
+++ b/Prequal Task List - 21'04.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git-hub.com Clone\Springboot-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21516409-316B-4671-AEE7-7195BC548445}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66772143-04F6-43B1-9106-05CBCB512F73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2484" yWindow="660" windowWidth="20544" windowHeight="11136" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22488" windowHeight="11808" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto CW " sheetId="1" r:id="rId1"/>
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
     <sheet name="Tasks" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
   <si>
     <t>Task</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,15 +428,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Extend time-out settings when ask Flag PR used-time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Short-term: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Dao </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -833,6 +826,336 @@
   </si>
   <si>
     <t>Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿少宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Action: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Teams</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>請問少宏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1. "Bad Input Param" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">是否跟送進去的內容有關 ? 
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Bug fix schedule.
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;F15B&gt;
+Workflow call Inhibition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>回來的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>resultMemo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>太長,發生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>exception</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;F14B&gt; Fail to get Slurry drum_actl_dlvr_time/used_time
+- L146171C: P5/6 no data
+- L146182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>王來彥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+IT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳彥勳/陳建良</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FHM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close w/ AR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Extend time-out settings when ask Flag PR used-time
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impl.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-Qual Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F18 query no data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Code merge and rebuild code w/ vs-2010. 
+2. Deploy to F18 for pilot run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YuChien</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Service </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">轉頭
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>確認</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">deploy status,
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>確認</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>WAF end-point status</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Srvc.&gt; Data service to query Pre-Qual. Summary data. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from ppmsdm.rawmat_pre_batch_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;GUI&gt; Function linkage to show Perf. Rpt. 
+ - SPC, Defect, FAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;GUI&gt; Common function to show Perf. Rpt. 
+ - Get report content from SAO. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宥縈</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;GUI&gt; Pre-Qual. Dashboard - L2. 
+ 1. Department level dashboard
+ 2. One-cliek to switch background theme
+ 3. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;GUI&gt; Pre-Qual. Dashboard - L1. 
+ 1. FAB level dashboard
+ 2. One-cliek to switch background theme
+ 3. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input: case-id, data subject, 
+Output: sao content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;GUI&gt; Pre-Qual. Dashboard - L3. 
+ 1. List all new batch pre-qual status
+ 2. One-cliek to switch background theme
+ 3. "Filter" w/ key columns. 
+ 4. raw data page. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,7 +1244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -958,6 +1281,15 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1304,9 +1636,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342071F4-8D9A-43BE-9DE4-7BBB6518F8B9}">
-  <dimension ref="C3:H6"/>
+  <dimension ref="C3:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1316,13 +1648,15 @@
     <col min="3" max="3" width="11.875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="32.75" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="7"/>
+    <col min="6" max="6" width="58.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="33.75" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
@@ -1341,8 +1675,14 @@
       <c r="H3" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="3:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="I3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" ht="45" x14ac:dyDescent="0.3">
       <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
@@ -1356,26 +1696,346 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7" t="s">
+    </row>
+    <row r="6" spans="3:11" ht="58.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="3:11" ht="44.4" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" ht="73.8" x14ac:dyDescent="0.3">
+      <c r="C8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" ht="59.4" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="75" x14ac:dyDescent="0.3">
+      <c r="C10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
+      <c r="F10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" ht="45" x14ac:dyDescent="0.3">
+      <c r="C11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BF9A19-A3A1-4D84-9DF2-2DA0AFE2E091}">
+  <dimension ref="C3:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="5.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="7"/>
+    <col min="9" max="9" width="36.125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="32.75" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+      <c r="D4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="3:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="3:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="3:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="C8" s="12"/>
+      <c r="D8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="3:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C9" s="12"/>
+      <c r="D9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="10"/>
+      <c r="D10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="3:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C11" s="10"/>
+      <c r="D11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C12" s="10"/>
+      <c r="D12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="3:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C13" s="10"/>
+      <c r="D13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1384,132 +2044,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BF9A19-A3A1-4D84-9DF2-2DA0AFE2E091}">
-  <dimension ref="C3:J7"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AE4F3B-73AE-4400-8D11-2919DFA6D30F}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="5.375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="7"/>
-    <col min="9" max="9" width="36.125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="32.75" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" ht="44.4" x14ac:dyDescent="0.3">
-      <c r="C4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" ht="44.4" x14ac:dyDescent="0.3">
-      <c r="C5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" ht="59.4" x14ac:dyDescent="0.3">
-      <c r="C6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" ht="59.4" x14ac:dyDescent="0.3">
-      <c r="C7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
